--- a/mbs-perturbation/bottleneck/MLP/nearmiss/bottleneck-mlp-nearmiss-results.xlsx
+++ b/mbs-perturbation/bottleneck/MLP/nearmiss/bottleneck-mlp-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6464646464646465</v>
+        <v>0.5946745562130178</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8930232558139535</v>
+        <v>0.9348837209302325</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7499999999999999</v>
+        <v>0.7269439421338155</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7914656571119523</v>
+        <v>0.7880475932936724</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7607142857142857</v>
+        <v>0.9894736842105263</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9906976744186047</v>
+        <v>0.8744186046511628</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8606060606060606</v>
+        <v>0.9283950617283951</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9502650081124933</v>
+        <v>0.9490535424553812</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9841269841269841</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8651162790697674</v>
+        <v>0.9069767441860465</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9207920792079207</v>
+        <v>0.951219512195122</v>
       </c>
       <c r="E4" t="n">
-        <v>0.986197944835046</v>
+        <v>0.9957598702001081</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0.9747474747474747</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8558139534883721</v>
+        <v>0.8976744186046511</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9223057644110275</v>
+        <v>0.9346246973365617</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9884478096268252</v>
+        <v>0.9447052460789617</v>
       </c>
     </row>
     <row r="6">
@@ -546,13 +546,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9116279069767442</v>
+        <v>0.8930232558139535</v>
       </c>
       <c r="D6" t="n">
-        <v>0.953771289537713</v>
+        <v>0.9434889434889435</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9974905354245539</v>
+        <v>0.9676365603028665</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8782611832611833</v>
+        <v>0.9117791430342038</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9032558139534885</v>
+        <v>0.9013953488372092</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8814950387525442</v>
+        <v>0.8969344313765676</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9427733910221739</v>
+        <v>0.9290405624661979</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/bottleneck/MLP/nearmiss/bottleneck-mlp-nearmiss-results.xlsx
+++ b/mbs-perturbation/bottleneck/MLP/nearmiss/bottleneck-mlp-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5946745562130178</v>
+        <v>0.6348684210526315</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9348837209302325</v>
+        <v>0.9846938775510204</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7269439421338155</v>
+        <v>0.772</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7880475932936724</v>
+        <v>0.8367870225013082</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9894736842105263</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8744186046511628</v>
+        <v>0.9744897959183674</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9283950617283951</v>
+        <v>0.9870801033591732</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9490535424553812</v>
+        <v>0.9990842490842491</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0.9795918367346939</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9069767441860465</v>
+        <v>0.9846153846153847</v>
       </c>
       <c r="D4" t="n">
-        <v>0.951219512195122</v>
+        <v>0.9820971867007673</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9957598702001081</v>
+        <v>0.9969126111983254</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9747474747474747</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8976744186046511</v>
+        <v>0.9846153846153847</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9346246973365617</v>
+        <v>0.9922480620155039</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9447052460789617</v>
+        <v>0.9994767137624281</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.9947916666666666</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8930232558139535</v>
+        <v>0.9794871794871794</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9434889434889435</v>
+        <v>0.9870801033591731</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9676365603028665</v>
+        <v>0.9992636423405654</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9117791430342038</v>
+        <v>0.9218503848907984</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9013953488372092</v>
+        <v>0.9815803244374672</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8969344313765676</v>
+        <v>0.9441010910869234</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9290405624661979</v>
+        <v>0.9663048477773752</v>
       </c>
     </row>
   </sheetData>
